--- a/UipathWork/schoolReport/classdetails.xlsx
+++ b/UipathWork/schoolReport/classdetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\besant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\UipathWork\schoolReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB42F25A-66D7-4F83-B9D3-574DBEA254A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B1DA2-5EF3-4FD0-9794-F2951C69CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
